--- a/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45369</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>50</v>
       </c>
     </row>
@@ -469,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +667,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>50</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,14 +626,6 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -645,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,14 +737,6 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -735,6 +736,467 @@
       </c>
       <c r="B11" t="n">
         <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-46.45343013524668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.324817490289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.40642443523056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133.7670370666816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.94941568464015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.7378242808812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-27.27144750567446</v>
+      </c>
+      <c r="D5" t="n">
+        <v>126.3464150404987</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-24.4406487159257</v>
+      </c>
+      <c r="D6" t="n">
+        <v>127.7388844890763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.2834292058949</v>
+      </c>
+      <c r="D7" t="n">
+        <v>131.8771412837678</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-25.51726211323676</v>
+      </c>
+      <c r="D8" t="n">
+        <v>138.8884227902916</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-15.78042405561499</v>
+      </c>
+      <c r="D9" t="n">
+        <v>136.992616000641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.540878373315901</v>
+      </c>
+      <c r="D10" t="n">
+        <v>153.7950362003048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>73</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.849736854542227</v>
+      </c>
+      <c r="D11" t="n">
+        <v>157.1299779380985</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.341800483022892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>155.7613358281581</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6.833572977095879</v>
+      </c>
+      <c r="D13" t="n">
+        <v>155.2339386777983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.531857654634941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>167.5221561203452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>88</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.809188132317844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>164.0182465097719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.043318637181171</v>
+      </c>
+      <c r="D16" t="n">
+        <v>168.7706760900055</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>92</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17.65175566284126</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173.6495570391591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>95</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.60095027780806</v>
+      </c>
+      <c r="D18" t="n">
+        <v>174.2844518145614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23.77352867338608</v>
+      </c>
+      <c r="D19" t="n">
+        <v>180.0049161766894</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17.44344122696431</v>
+      </c>
+      <c r="D20" t="n">
+        <v>176.1114969602163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>101</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.50304971900808</v>
+      </c>
+      <c r="D21" t="n">
+        <v>180.1195064074922</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>105</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23.56259930817894</v>
+      </c>
+      <c r="D22" t="n">
+        <v>188.176350950537</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26.09450524392335</v>
+      </c>
+      <c r="D23" t="n">
+        <v>183.9192244687347</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>110</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26.22260202818235</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.0138537774238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37.90447625841316</v>
+      </c>
+      <c r="D25" t="n">
+        <v>192.6973703780392</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>114</v>
+      </c>
+      <c r="C26" t="n">
+        <v>34.0887528336957</v>
+      </c>
+      <c r="D26" t="n">
+        <v>193.5448161811777</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>116</v>
+      </c>
+      <c r="C27" t="n">
+        <v>35.19975569925397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>192.4184354637936</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>118</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.21025014740063</v>
+      </c>
+      <c r="D28" t="n">
+        <v>202.0327424373133</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>44.67332221899236</v>
+      </c>
+      <c r="D29" t="n">
+        <v>201.5538942124331</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>122</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40.8664992873058</v>
+      </c>
+      <c r="D30" t="n">
+        <v>199.2061691077515</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>124</v>
+      </c>
+      <c r="C31" t="n">
+        <v>48.47093844451941</v>
+      </c>
+      <c r="D31" t="n">
+        <v>203.1660776359511</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7SWF5_po_data.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,16 +768,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -786,12 +776,6 @@
       <c r="B2" t="n">
         <v>39</v>
       </c>
-      <c r="C2" t="n">
-        <v>-46.45343013524668</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.324817490289</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -800,12 +784,6 @@
       <c r="B3" t="n">
         <v>48</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.40642443523056</v>
-      </c>
-      <c r="D3" t="n">
-        <v>133.7670370666816</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -814,12 +792,6 @@
       <c r="B4" t="n">
         <v>50</v>
       </c>
-      <c r="C4" t="n">
-        <v>-26.94941568464015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.7378242808812</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -828,12 +800,6 @@
       <c r="B5" t="n">
         <v>52</v>
       </c>
-      <c r="C5" t="n">
-        <v>-27.27144750567446</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126.3464150404987</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -842,12 +808,6 @@
       <c r="B6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
-        <v>-24.4406487159257</v>
-      </c>
-      <c r="D6" t="n">
-        <v>127.7388844890763</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -856,12 +816,6 @@
       <c r="B7" t="n">
         <v>56</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.2834292058949</v>
-      </c>
-      <c r="D7" t="n">
-        <v>131.8771412837678</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -870,12 +824,6 @@
       <c r="B8" t="n">
         <v>58</v>
       </c>
-      <c r="C8" t="n">
-        <v>-25.51726211323676</v>
-      </c>
-      <c r="D8" t="n">
-        <v>138.8884227902916</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -884,12 +832,6 @@
       <c r="B9" t="n">
         <v>60</v>
       </c>
-      <c r="C9" t="n">
-        <v>-15.78042405561499</v>
-      </c>
-      <c r="D9" t="n">
-        <v>136.992616000641</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -898,12 +840,6 @@
       <c r="B10" t="n">
         <v>71</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.540878373315901</v>
-      </c>
-      <c r="D10" t="n">
-        <v>153.7950362003048</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -912,12 +848,6 @@
       <c r="B11" t="n">
         <v>73</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.849736854542227</v>
-      </c>
-      <c r="D11" t="n">
-        <v>157.1299779380985</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -926,12 +856,6 @@
       <c r="B12" t="n">
         <v>75</v>
       </c>
-      <c r="C12" t="n">
-        <v>-7.341800483022892</v>
-      </c>
-      <c r="D12" t="n">
-        <v>155.7613358281581</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -940,12 +864,6 @@
       <c r="B13" t="n">
         <v>77</v>
       </c>
-      <c r="C13" t="n">
-        <v>-6.833572977095879</v>
-      </c>
-      <c r="D13" t="n">
-        <v>155.2339386777983</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -954,12 +872,6 @@
       <c r="B14" t="n">
         <v>82</v>
       </c>
-      <c r="C14" t="n">
-        <v>8.531857654634941</v>
-      </c>
-      <c r="D14" t="n">
-        <v>167.5221561203452</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -968,12 +880,6 @@
       <c r="B15" t="n">
         <v>88</v>
       </c>
-      <c r="C15" t="n">
-        <v>8.809188132317844</v>
-      </c>
-      <c r="D15" t="n">
-        <v>164.0182465097719</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -982,12 +888,6 @@
       <c r="B16" t="n">
         <v>90</v>
       </c>
-      <c r="C16" t="n">
-        <v>9.043318637181171</v>
-      </c>
-      <c r="D16" t="n">
-        <v>168.7706760900055</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -996,12 +896,6 @@
       <c r="B17" t="n">
         <v>92</v>
       </c>
-      <c r="C17" t="n">
-        <v>17.65175566284126</v>
-      </c>
-      <c r="D17" t="n">
-        <v>173.6495570391591</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1010,12 +904,6 @@
       <c r="B18" t="n">
         <v>95</v>
       </c>
-      <c r="C18" t="n">
-        <v>11.60095027780806</v>
-      </c>
-      <c r="D18" t="n">
-        <v>174.2844518145614</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1024,12 +912,6 @@
       <c r="B19" t="n">
         <v>97</v>
       </c>
-      <c r="C19" t="n">
-        <v>23.77352867338608</v>
-      </c>
-      <c r="D19" t="n">
-        <v>180.0049161766894</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1038,12 +920,6 @@
       <c r="B20" t="n">
         <v>99</v>
       </c>
-      <c r="C20" t="n">
-        <v>17.44344122696431</v>
-      </c>
-      <c r="D20" t="n">
-        <v>176.1114969602163</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1052,12 +928,6 @@
       <c r="B21" t="n">
         <v>101</v>
       </c>
-      <c r="C21" t="n">
-        <v>21.50304971900808</v>
-      </c>
-      <c r="D21" t="n">
-        <v>180.1195064074922</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1066,12 +936,6 @@
       <c r="B22" t="n">
         <v>105</v>
       </c>
-      <c r="C22" t="n">
-        <v>23.56259930817894</v>
-      </c>
-      <c r="D22" t="n">
-        <v>188.176350950537</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1080,12 +944,6 @@
       <c r="B23" t="n">
         <v>109</v>
       </c>
-      <c r="C23" t="n">
-        <v>26.09450524392335</v>
-      </c>
-      <c r="D23" t="n">
-        <v>183.9192244687347</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1094,12 +952,6 @@
       <c r="B24" t="n">
         <v>110</v>
       </c>
-      <c r="C24" t="n">
-        <v>26.22260202818235</v>
-      </c>
-      <c r="D24" t="n">
-        <v>195.0138537774238</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1108,12 +960,6 @@
       <c r="B25" t="n">
         <v>112</v>
       </c>
-      <c r="C25" t="n">
-        <v>37.90447625841316</v>
-      </c>
-      <c r="D25" t="n">
-        <v>192.6973703780392</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1122,12 +968,6 @@
       <c r="B26" t="n">
         <v>114</v>
       </c>
-      <c r="C26" t="n">
-        <v>34.0887528336957</v>
-      </c>
-      <c r="D26" t="n">
-        <v>193.5448161811777</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1136,12 +976,6 @@
       <c r="B27" t="n">
         <v>116</v>
       </c>
-      <c r="C27" t="n">
-        <v>35.19975569925397</v>
-      </c>
-      <c r="D27" t="n">
-        <v>192.4184354637936</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1150,12 +984,6 @@
       <c r="B28" t="n">
         <v>118</v>
       </c>
-      <c r="C28" t="n">
-        <v>33.21025014740063</v>
-      </c>
-      <c r="D28" t="n">
-        <v>202.0327424373133</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1164,12 +992,6 @@
       <c r="B29" t="n">
         <v>120</v>
       </c>
-      <c r="C29" t="n">
-        <v>44.67332221899236</v>
-      </c>
-      <c r="D29" t="n">
-        <v>201.5538942124331</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1178,12 +1000,6 @@
       <c r="B30" t="n">
         <v>122</v>
       </c>
-      <c r="C30" t="n">
-        <v>40.8664992873058</v>
-      </c>
-      <c r="D30" t="n">
-        <v>199.2061691077515</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1191,12 +1007,6 @@
       </c>
       <c r="B31" t="n">
         <v>124</v>
-      </c>
-      <c r="C31" t="n">
-        <v>48.47093844451941</v>
-      </c>
-      <c r="D31" t="n">
-        <v>203.1660776359511</v>
       </c>
     </row>
   </sheetData>
